--- a/Poseschaemost_i_rezultaty_testov.xlsx
+++ b/Poseschaemost_i_rezultaty_testov.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="83">
   <si>
     <t>9 класс</t>
   </si>
@@ -210,6 +210,63 @@
   </si>
   <si>
     <t>Быков               9 Ж</t>
+  </si>
+  <si>
+    <t>Михайлов      9 Ж</t>
+  </si>
+  <si>
+    <t>"+      2"</t>
+  </si>
+  <si>
+    <t>"+      5"</t>
+  </si>
+  <si>
+    <t>Лесюк                 9Д</t>
+  </si>
+  <si>
+    <t>Салтыков           9Д</t>
+  </si>
+  <si>
+    <t>Пантюхин         9Д</t>
+  </si>
+  <si>
+    <t>Варламова       9Д</t>
+  </si>
+  <si>
+    <t>Пачколия           9Г</t>
+  </si>
+  <si>
+    <t>Копанёв             9Е</t>
+  </si>
+  <si>
+    <t>Немтинов         9Е</t>
+  </si>
+  <si>
+    <t>Сычев                 9Е</t>
+  </si>
+  <si>
+    <t>Скорынин         9Е</t>
+  </si>
+  <si>
+    <t>постоянное посещение</t>
+  </si>
+  <si>
+    <t>2 раза был</t>
+  </si>
+  <si>
+    <t>1 раз был</t>
+  </si>
+  <si>
+    <t>3 раза был</t>
+  </si>
+  <si>
+    <t>Куталиди</t>
+  </si>
+  <si>
+    <t>Назимок         9 Ж</t>
+  </si>
+  <si>
+    <t>Сычёв</t>
   </si>
 </sst>
 </file>
@@ -583,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,7 +651,7 @@
     <col min="1" max="1" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -637,8 +694,11 @@
       <c r="N1" s="1">
         <v>43530</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="1">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -670,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -678,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -703,8 +763,11 @@
       <c r="J4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -712,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -723,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -734,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -742,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -776,8 +839,11 @@
       <c r="N9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -785,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -796,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -807,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -821,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -829,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -837,15 +903,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>61</v>
       </c>
       <c r="J16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -853,12 +922,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>63</v>
       </c>
       <c r="N18" t="s">
         <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -869,33 +965,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" customWidth="1"/>
-    <col min="6" max="6" width="5.1796875" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="8" width="5.54296875" customWidth="1"/>
-    <col min="9" max="9" width="5.26953125" customWidth="1"/>
-    <col min="10" max="10" width="5.7265625" customWidth="1"/>
-    <col min="11" max="11" width="6.54296875" customWidth="1"/>
-    <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="14" width="6.26953125" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" customWidth="1"/>
-    <col min="16" max="17" width="6.1796875" customWidth="1"/>
-    <col min="18" max="18" width="5.7265625" customWidth="1"/>
-    <col min="19" max="19" width="6.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.26953125" customWidth="1"/>
-    <col min="21" max="21" width="6.54296875" customWidth="1"/>
+    <col min="2" max="2" width="3.54296875" customWidth="1"/>
+    <col min="3" max="5" width="3.36328125" customWidth="1"/>
+    <col min="6" max="6" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="3.26953125" customWidth="1"/>
+    <col min="8" max="8" width="3.453125" customWidth="1"/>
+    <col min="9" max="9" width="2.81640625" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
+    <col min="11" max="11" width="3.81640625" customWidth="1"/>
+    <col min="12" max="12" width="3.7265625" customWidth="1"/>
+    <col min="13" max="13" width="3.1796875" customWidth="1"/>
+    <col min="14" max="14" width="3.453125" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="3.08984375" customWidth="1"/>
+    <col min="17" max="17" width="3.1796875" customWidth="1"/>
+    <col min="18" max="18" width="3.26953125" customWidth="1"/>
+    <col min="19" max="20" width="3.54296875" customWidth="1"/>
+    <col min="21" max="21" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -1107,26 +1202,346 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>20</v>
       </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24">
+        <v>11</v>
+      </c>
+      <c r="M24">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>13</v>
+      </c>
+      <c r="O24">
+        <v>14</v>
+      </c>
+      <c r="P24">
+        <v>15</v>
+      </c>
+      <c r="Q24">
+        <v>16</v>
+      </c>
+      <c r="R24">
+        <v>17</v>
+      </c>
+      <c r="S24">
+        <v>18</v>
+      </c>
+      <c r="T24">
+        <v>19</v>
+      </c>
+      <c r="U24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>12</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Poseschaemost_i_rezultaty_testov.xlsx
+++ b/Poseschaemost_i_rezultaty_testov.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="19420" windowHeight="10050" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="19420" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="84">
   <si>
     <t>9 класс</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>Сычёв</t>
+  </si>
+  <si>
+    <t>Дорохова        9 Е</t>
   </si>
 </sst>
 </file>
@@ -640,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,7 +654,7 @@
     <col min="1" max="1" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -697,8 +700,11 @@
       <c r="O1" s="1">
         <v>43537</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" s="1">
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -729,8 +735,11 @@
       <c r="N2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -738,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -767,7 +776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -775,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -786,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -797,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -805,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -842,8 +851,11 @@
       <c r="O9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -851,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -862,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -873,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -887,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -895,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -903,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -914,15 +926,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>62</v>
       </c>
       <c r="N17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -932,29 +947,32 @@
       <c r="O18" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="O19" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="O20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O21" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/Poseschaemost_i_rezultaty_testov.xlsx
+++ b/Poseschaemost_i_rezultaty_testov.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="19420" windowHeight="10050"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="19420" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="85">
   <si>
     <t>9 класс</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Дорохова        9 Е</t>
+  </si>
+  <si>
+    <t>Быков</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +324,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -334,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -342,6 +351,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -643,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -654,7 +664,7 @@
     <col min="1" max="1" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -703,8 +713,11 @@
       <c r="P1" s="1">
         <v>43544</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" s="1">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -738,8 +751,11 @@
       <c r="P2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -747,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -775,8 +791,11 @@
       <c r="O4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -784,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -795,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -806,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -814,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -855,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -863,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -874,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -885,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -899,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -907,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -915,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -925,8 +944,11 @@
       <c r="O16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -936,8 +958,11 @@
       <c r="P17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -950,8 +975,11 @@
       <c r="P18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -962,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -970,9 +998,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>83</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -983,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1562,8 +1593,183 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>11</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>13</v>
+      </c>
+      <c r="O29">
+        <v>14</v>
+      </c>
+      <c r="P29">
+        <v>15</v>
+      </c>
+      <c r="Q29">
+        <v>16</v>
+      </c>
+      <c r="R29">
+        <v>17</v>
+      </c>
+      <c r="S29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R31" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Poseschaemost_i_rezultaty_testov.xlsx
+++ b/Poseschaemost_i_rezultaty_testov.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="19420" windowHeight="10050" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="19420" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="85">
   <si>
     <t>9 класс</t>
   </si>
@@ -653,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,7 +664,7 @@
     <col min="1" max="1" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -716,8 +716,14 @@
       <c r="Q1" s="1">
         <v>43558</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1">
+        <v>43572</v>
+      </c>
+      <c r="S1" s="1">
+        <v>43593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -754,8 +760,14 @@
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -763,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -794,8 +806,14 @@
       <c r="Q4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -803,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -814,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -825,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -833,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -873,8 +891,14 @@
       <c r="P9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -882,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -893,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -904,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -917,8 +941,11 @@
       <c r="N13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -926,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -934,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -947,8 +974,11 @@
       <c r="Q16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -961,8 +991,11 @@
       <c r="Q17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -978,8 +1011,11 @@
       <c r="Q18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -990,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -998,11 +1034,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>83</v>
       </c>
       <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1016,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
